--- a/05_Result/eeg/xlsx/Revise_5Phase/P01_move_active_results.xlsx
+++ b/05_Result/eeg/xlsx/Revise_5Phase/P01_move_active_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="77" uniqueCount="11">
   <si>
     <t>MovDur</t>
   </si>

--- a/05_Result/eeg/xlsx/Revise_5Phase/P01_move_active_results.xlsx
+++ b/05_Result/eeg/xlsx/Revise_5Phase/P01_move_active_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="77" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="101" uniqueCount="12">
   <si>
     <t>MovDur</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>C4_post</t>
+  </si>
+  <si>
+    <t>HalfDur</t>
   </si>
 </sst>
 </file>
@@ -91,14 +94,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.85546875" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
@@ -106,8 +109,9 @@
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -115,33 +119,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>10</v>
       </c>
     </row>
@@ -150,33 +157,36 @@
         <v>3.3040000000000003</v>
       </c>
       <c r="B2" s="0">
+        <v>2.452</v>
+      </c>
+      <c r="C2" s="0">
         <v>6.0061745643615723</v>
       </c>
-      <c r="C2" s="0">
+      <c r="D2" s="0">
         <v>5.1135492324829102</v>
       </c>
-      <c r="D2" s="0">
+      <c r="E2" s="0">
         <v>4.2195291519165039</v>
       </c>
-      <c r="E2" s="0">
+      <c r="F2" s="0">
         <v>3.820354700088501</v>
       </c>
-      <c r="F2" s="0">
+      <c r="G2" s="0">
         <v>4.483799934387207</v>
       </c>
-      <c r="G2" s="0">
+      <c r="H2" s="0">
         <v>4.3408012390136719</v>
       </c>
-      <c r="H2" s="0">
+      <c r="I2" s="0">
         <v>4.5756282806396484</v>
       </c>
-      <c r="I2" s="0">
+      <c r="J2" s="0">
         <v>4.5216426849365234</v>
       </c>
-      <c r="J2" s="0">
+      <c r="K2" s="0">
         <v>3.1740257740020752</v>
       </c>
-      <c r="K2" s="0">
+      <c r="L2" s="0">
         <v>3.0014944076538086</v>
       </c>
     </row>
@@ -185,33 +195,36 @@
         <v>4.4119999999999999</v>
       </c>
       <c r="B3" s="0">
+        <v>3.7240000000000002</v>
+      </c>
+      <c r="C3" s="0">
         <v>6.2607259750366211</v>
       </c>
-      <c r="C3" s="0">
+      <c r="D3" s="0">
         <v>6.0010871887207031</v>
       </c>
-      <c r="D3" s="0">
+      <c r="E3" s="0">
         <v>6.4442596435546875</v>
       </c>
-      <c r="E3" s="0">
+      <c r="F3" s="0">
         <v>8.3221111297607422</v>
       </c>
-      <c r="F3" s="0">
+      <c r="G3" s="0">
         <v>5.3628754615783691</v>
       </c>
-      <c r="G3" s="0">
+      <c r="H3" s="0">
         <v>5.9000821113586426</v>
       </c>
-      <c r="H3" s="0">
+      <c r="I3" s="0">
         <v>5.1630921363830566</v>
       </c>
-      <c r="I3" s="0">
+      <c r="J3" s="0">
         <v>5.4526181221008301</v>
       </c>
-      <c r="J3" s="0">
+      <c r="K3" s="0">
         <v>3.3551197052001953</v>
       </c>
-      <c r="K3" s="0">
+      <c r="L3" s="0">
         <v>2.9934651851654053</v>
       </c>
     </row>
@@ -220,33 +233,36 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B4" s="0">
+        <v>1.5600000000000003</v>
+      </c>
+      <c r="C4" s="0">
         <v>2.6241714954376221</v>
       </c>
-      <c r="C4" s="0">
+      <c r="D4" s="0">
         <v>3.6355082988739014</v>
       </c>
-      <c r="D4" s="0">
+      <c r="E4" s="0">
         <v>2.5162370204925537</v>
       </c>
-      <c r="E4" s="0">
+      <c r="F4" s="0">
         <v>2.3215839862823486</v>
       </c>
-      <c r="F4" s="0">
+      <c r="G4" s="0">
         <v>3.86734938621521</v>
       </c>
-      <c r="G4" s="0">
+      <c r="H4" s="0">
         <v>4.1031289100646973</v>
       </c>
-      <c r="H4" s="0">
+      <c r="I4" s="0">
         <v>4.4389729499816895</v>
       </c>
-      <c r="I4" s="0">
+      <c r="J4" s="0">
         <v>4.8568587303161621</v>
       </c>
-      <c r="J4" s="0">
+      <c r="K4" s="0">
         <v>4.5837125778198242</v>
       </c>
-      <c r="K4" s="0">
+      <c r="L4" s="0">
         <v>3.7171251773834229</v>
       </c>
     </row>
@@ -255,33 +271,36 @@
         <v>5.1920000000000002</v>
       </c>
       <c r="B5" s="0">
+        <v>3.7160000000000002</v>
+      </c>
+      <c r="C5" s="0">
         <v>5.5075259208679199</v>
       </c>
-      <c r="C5" s="0">
+      <c r="D5" s="0">
         <v>5.7413234710693359</v>
       </c>
-      <c r="D5" s="0">
+      <c r="E5" s="0">
         <v>5.4276843070983887</v>
       </c>
-      <c r="E5" s="0">
+      <c r="F5" s="0">
         <v>6.1741847991943359</v>
       </c>
-      <c r="F5" s="0">
+      <c r="G5" s="0">
         <v>7.5277209281921387</v>
       </c>
-      <c r="G5" s="0">
+      <c r="H5" s="0">
         <v>7.8547978401184082</v>
       </c>
-      <c r="H5" s="0">
+      <c r="I5" s="0">
         <v>8.3618564605712891</v>
       </c>
-      <c r="I5" s="0">
+      <c r="J5" s="0">
         <v>8.5223379135131836</v>
       </c>
-      <c r="J5" s="0">
+      <c r="K5" s="0">
         <v>1.8601844310760498</v>
       </c>
-      <c r="K5" s="0">
+      <c r="L5" s="0">
         <v>3.7919714450836182</v>
       </c>
     </row>
@@ -290,33 +309,36 @@
         <v>1.8999999999999999</v>
       </c>
       <c r="B6" s="0">
+        <v>1.476</v>
+      </c>
+      <c r="C6" s="0">
         <v>4.1184720993041992</v>
       </c>
-      <c r="C6" s="0">
+      <c r="D6" s="0">
         <v>4.0582208633422852</v>
       </c>
-      <c r="D6" s="0">
+      <c r="E6" s="0">
         <v>5.7149224281311035</v>
       </c>
-      <c r="E6" s="0">
+      <c r="F6" s="0">
         <v>3.5523912906646729</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>3.7584130764007568</v>
       </c>
-      <c r="G6" s="0">
+      <c r="H6" s="0">
         <v>3.8933701515197754</v>
       </c>
-      <c r="H6" s="0">
+      <c r="I6" s="0">
         <v>3.1963818073272705</v>
       </c>
-      <c r="I6" s="0">
+      <c r="J6" s="0">
         <v>3.9913206100463867</v>
       </c>
-      <c r="J6" s="0">
+      <c r="K6" s="0">
         <v>1.5972510576248169</v>
       </c>
-      <c r="K6" s="0">
+      <c r="L6" s="0">
         <v>1.8328975439071655</v>
       </c>
     </row>
@@ -325,33 +347,36 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="B7" s="0">
+        <v>1.9960000000000002</v>
+      </c>
+      <c r="C7" s="0">
         <v>2.9261586666107178</v>
       </c>
-      <c r="C7" s="0">
+      <c r="D7" s="0">
         <v>3.1537809371948242</v>
       </c>
-      <c r="D7" s="0">
+      <c r="E7" s="0">
         <v>3.992844820022583</v>
       </c>
-      <c r="E7" s="0">
+      <c r="F7" s="0">
         <v>2.6488502025604248</v>
       </c>
-      <c r="F7" s="0">
+      <c r="G7" s="0">
         <v>2.6994805335998535</v>
       </c>
-      <c r="G7" s="0">
+      <c r="H7" s="0">
         <v>2.6417224407196045</v>
       </c>
-      <c r="H7" s="0">
+      <c r="I7" s="0">
         <v>2.2510793209075928</v>
       </c>
-      <c r="I7" s="0">
+      <c r="J7" s="0">
         <v>2.6392514705657959</v>
       </c>
-      <c r="J7" s="0">
+      <c r="K7" s="0">
         <v>1.6210173368453979</v>
       </c>
-      <c r="K7" s="0">
+      <c r="L7" s="0">
         <v>0.82995522022247314</v>
       </c>
     </row>
@@ -360,33 +385,36 @@
         <v>2.3759999999999999</v>
       </c>
       <c r="B8" s="0">
+        <v>1.744</v>
+      </c>
+      <c r="C8" s="0">
         <v>3.2981879711151123</v>
       </c>
-      <c r="C8" s="0">
+      <c r="D8" s="0">
         <v>2.9276695251464844</v>
       </c>
-      <c r="D8" s="0">
+      <c r="E8" s="0">
         <v>2.6543693542480469</v>
       </c>
-      <c r="E8" s="0">
+      <c r="F8" s="0">
         <v>1.8898395299911499</v>
       </c>
-      <c r="F8" s="0">
+      <c r="G8" s="0">
         <v>3.4252974987030029</v>
       </c>
-      <c r="G8" s="0">
+      <c r="H8" s="0">
         <v>2.7549712657928467</v>
       </c>
-      <c r="H8" s="0">
+      <c r="I8" s="0">
         <v>3.7046711444854736</v>
       </c>
-      <c r="I8" s="0">
+      <c r="J8" s="0">
         <v>3.0684821605682373</v>
       </c>
-      <c r="J8" s="0">
+      <c r="K8" s="0">
         <v>5.5365543365478516</v>
       </c>
-      <c r="K8" s="0">
+      <c r="L8" s="0">
         <v>2.7882316112518311</v>
       </c>
     </row>
@@ -395,33 +423,36 @@
         <v>3.4359999999999999</v>
       </c>
       <c r="B9" s="0">
+        <v>2.4399999999999999</v>
+      </c>
+      <c r="C9" s="0">
         <v>8.9773216247558594</v>
       </c>
-      <c r="C9" s="0">
+      <c r="D9" s="0">
         <v>9.6077919006347656</v>
       </c>
-      <c r="D9" s="0">
+      <c r="E9" s="0">
         <v>4.1677570343017578</v>
       </c>
-      <c r="E9" s="0">
+      <c r="F9" s="0">
         <v>4.5537757873535156</v>
       </c>
-      <c r="F9" s="0">
+      <c r="G9" s="0">
         <v>2.8719696998596191</v>
       </c>
-      <c r="G9" s="0">
+      <c r="H9" s="0">
         <v>2.9388251304626465</v>
       </c>
-      <c r="H9" s="0">
+      <c r="I9" s="0">
         <v>2.3430325984954834</v>
       </c>
-      <c r="I9" s="0">
+      <c r="J9" s="0">
         <v>2.279606819152832</v>
       </c>
-      <c r="J9" s="0">
+      <c r="K9" s="0">
         <v>0.59649002552032471</v>
       </c>
-      <c r="K9" s="0">
+      <c r="L9" s="0">
         <v>0.88981401920318604</v>
       </c>
     </row>
@@ -430,33 +461,36 @@
         <v>2.548</v>
       </c>
       <c r="B10" s="0">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="C10" s="0">
         <v>6.6661205291748047</v>
       </c>
-      <c r="C10" s="0">
+      <c r="D10" s="0">
         <v>4.3553566932678223</v>
       </c>
-      <c r="D10" s="0">
+      <c r="E10" s="0">
         <v>3.5104756355285645</v>
       </c>
-      <c r="E10" s="0">
+      <c r="F10" s="0">
         <v>3.5821595191955566</v>
       </c>
-      <c r="F10" s="0">
+      <c r="G10" s="0">
         <v>50.217685699462891</v>
       </c>
-      <c r="G10" s="0">
+      <c r="H10" s="0">
         <v>12.847890853881836</v>
       </c>
-      <c r="H10" s="0">
+      <c r="I10" s="0">
         <v>67.632232666015625</v>
       </c>
-      <c r="I10" s="0">
+      <c r="J10" s="0">
         <v>16.302570343017578</v>
       </c>
-      <c r="J10" s="0">
+      <c r="K10" s="0">
         <v>22.107154846191406</v>
       </c>
-      <c r="K10" s="0">
+      <c r="L10" s="0">
         <v>9.0652532577514648</v>
       </c>
     </row>
@@ -465,33 +499,36 @@
         <v>3.2480000000000002</v>
       </c>
       <c r="B11" s="0">
+        <v>2.2760000000000002</v>
+      </c>
+      <c r="C11" s="0">
         <v>3.2503631114959717</v>
       </c>
-      <c r="C11" s="0">
+      <c r="D11" s="0">
         <v>4.4507870674133301</v>
       </c>
-      <c r="D11" s="0">
+      <c r="E11" s="0">
         <v>4.1611900329589844</v>
       </c>
-      <c r="E11" s="0">
+      <c r="F11" s="0">
         <v>4.3516449928283691</v>
       </c>
-      <c r="F11" s="0">
+      <c r="G11" s="0">
         <v>4.1629586219787598</v>
       </c>
-      <c r="G11" s="0">
+      <c r="H11" s="0">
         <v>3.7331984043121338</v>
       </c>
-      <c r="H11" s="0">
+      <c r="I11" s="0">
         <v>4.1637144088745117</v>
       </c>
-      <c r="I11" s="0">
+      <c r="J11" s="0">
         <v>3.4690818786621094</v>
       </c>
-      <c r="J11" s="0">
+      <c r="K11" s="0">
         <v>1.2929658889770508</v>
       </c>
-      <c r="K11" s="0">
+      <c r="L11" s="0">
         <v>3.282179594039917</v>
       </c>
     </row>
@@ -500,33 +537,36 @@
         <v>1.96</v>
       </c>
       <c r="B12" s="0">
+        <v>1.544</v>
+      </c>
+      <c r="C12" s="0">
         <v>2.3493278026580811</v>
       </c>
-      <c r="C12" s="0">
+      <c r="D12" s="0">
         <v>2.3023138046264648</v>
       </c>
-      <c r="D12" s="0">
+      <c r="E12" s="0">
         <v>1.6306664943695068</v>
       </c>
-      <c r="E12" s="0">
+      <c r="F12" s="0">
         <v>2.3298959732055664</v>
       </c>
-      <c r="F12" s="0">
+      <c r="G12" s="0">
         <v>3.1495907306671143</v>
       </c>
-      <c r="G12" s="0">
+      <c r="H12" s="0">
         <v>5.3790988922119141</v>
       </c>
-      <c r="H12" s="0">
+      <c r="I12" s="0">
         <v>3.5588345527648926</v>
       </c>
-      <c r="I12" s="0">
+      <c r="J12" s="0">
         <v>6.2006440162658691</v>
       </c>
-      <c r="J12" s="0">
+      <c r="K12" s="0">
         <v>3.1341001987457275</v>
       </c>
-      <c r="K12" s="0">
+      <c r="L12" s="0">
         <v>4.8892612457275391</v>
       </c>
     </row>
@@ -535,33 +575,36 @@
         <v>3.984</v>
       </c>
       <c r="B13" s="0">
+        <v>2.448</v>
+      </c>
+      <c r="C13" s="0">
         <v>4.0593857765197754</v>
       </c>
-      <c r="C13" s="0">
+      <c r="D13" s="0">
         <v>2.8933262825012207</v>
       </c>
-      <c r="D13" s="0">
+      <c r="E13" s="0">
         <v>3.2057046890258789</v>
       </c>
-      <c r="E13" s="0">
+      <c r="F13" s="0">
         <v>2.2791321277618408</v>
       </c>
-      <c r="F13" s="0">
+      <c r="G13" s="0">
         <v>3.8438713550567627</v>
       </c>
-      <c r="G13" s="0">
+      <c r="H13" s="0">
         <v>2.9875950813293457</v>
       </c>
-      <c r="H13" s="0">
+      <c r="I13" s="0">
         <v>4.2442917823791504</v>
       </c>
-      <c r="I13" s="0">
+      <c r="J13" s="0">
         <v>3.4321203231811523</v>
       </c>
-      <c r="J13" s="0">
+      <c r="K13" s="0">
         <v>13.069729804992676</v>
       </c>
-      <c r="K13" s="0">
+      <c r="L13" s="0">
         <v>8.9762868881225586</v>
       </c>
     </row>
@@ -570,33 +613,36 @@
         <v>5.2519999999999998</v>
       </c>
       <c r="B14" s="0">
+        <v>4.4359999999999999</v>
+      </c>
+      <c r="C14" s="0">
         <v>3.872166633605957</v>
       </c>
-      <c r="C14" s="0">
+      <c r="D14" s="0">
         <v>3.9954872131347656</v>
       </c>
-      <c r="D14" s="0">
+      <c r="E14" s="0">
         <v>4.2581305503845215</v>
       </c>
-      <c r="E14" s="0">
+      <c r="F14" s="0">
         <v>3.2304263114929199</v>
       </c>
-      <c r="F14" s="0">
+      <c r="G14" s="0">
         <v>6.5624995231628418</v>
       </c>
-      <c r="G14" s="0">
+      <c r="H14" s="0">
         <v>6.2342290878295898</v>
       </c>
-      <c r="H14" s="0">
+      <c r="I14" s="0">
         <v>6.9863882064819336</v>
       </c>
-      <c r="I14" s="0">
+      <c r="J14" s="0">
         <v>6.786776065826416</v>
       </c>
-      <c r="J14" s="0">
+      <c r="K14" s="0">
         <v>5.0987043380737305</v>
       </c>
-      <c r="K14" s="0">
+      <c r="L14" s="0">
         <v>7.1183605194091797</v>
       </c>
     </row>
@@ -605,33 +651,36 @@
         <v>3.0880000000000001</v>
       </c>
       <c r="B15" s="0">
+        <v>2.3120000000000003</v>
+      </c>
+      <c r="C15" s="0">
         <v>3.8119103908538818</v>
       </c>
-      <c r="C15" s="0">
+      <c r="D15" s="0">
         <v>4.1551032066345215</v>
       </c>
-      <c r="D15" s="0">
+      <c r="E15" s="0">
         <v>4.5207982063293457</v>
       </c>
-      <c r="E15" s="0">
+      <c r="F15" s="0">
         <v>5.8809700012207031</v>
       </c>
-      <c r="F15" s="0">
+      <c r="G15" s="0">
         <v>5.5600090026855469</v>
       </c>
-      <c r="G15" s="0">
+      <c r="H15" s="0">
         <v>6.3423500061035156</v>
       </c>
-      <c r="H15" s="0">
+      <c r="I15" s="0">
         <v>5.9088101387023926</v>
       </c>
-      <c r="I15" s="0">
+      <c r="J15" s="0">
         <v>6.4972095489501953</v>
       </c>
-      <c r="J15" s="0">
+      <c r="K15" s="0">
         <v>3.8870673179626465</v>
       </c>
-      <c r="K15" s="0">
+      <c r="L15" s="0">
         <v>6.6875953674316406</v>
       </c>
     </row>
@@ -640,33 +689,36 @@
         <v>2.7480000000000002</v>
       </c>
       <c r="B16" s="0">
+        <v>2.032</v>
+      </c>
+      <c r="C16" s="0">
         <v>4.8545780181884766</v>
       </c>
-      <c r="C16" s="0">
+      <c r="D16" s="0">
         <v>4.3080253601074219</v>
       </c>
-      <c r="D16" s="0">
+      <c r="E16" s="0">
         <v>2.3912241458892822</v>
       </c>
-      <c r="E16" s="0">
+      <c r="F16" s="0">
         <v>2.949526309967041</v>
       </c>
-      <c r="F16" s="0">
+      <c r="G16" s="0">
         <v>2.5407893657684326</v>
       </c>
-      <c r="G16" s="0">
+      <c r="H16" s="0">
         <v>2.9488658905029297</v>
       </c>
-      <c r="H16" s="0">
+      <c r="I16" s="0">
         <v>2.5934906005859375</v>
       </c>
-      <c r="I16" s="0">
+      <c r="J16" s="0">
         <v>2.948631763458252</v>
       </c>
-      <c r="J16" s="0">
+      <c r="K16" s="0">
         <v>3.016002893447876</v>
       </c>
-      <c r="K16" s="0">
+      <c r="L16" s="0">
         <v>4.0603475570678711</v>
       </c>
     </row>
@@ -675,33 +727,36 @@
         <v>2.456</v>
       </c>
       <c r="B17" s="0">
+        <v>1.964</v>
+      </c>
+      <c r="C17" s="0">
         <v>2.7363545894622803</v>
       </c>
-      <c r="C17" s="0">
+      <c r="D17" s="0">
         <v>4.1358294486999512</v>
       </c>
-      <c r="D17" s="0">
+      <c r="E17" s="0">
         <v>4.5254220962524414</v>
       </c>
-      <c r="E17" s="0">
+      <c r="F17" s="0">
         <v>5.0284304618835449</v>
       </c>
-      <c r="F17" s="0">
+      <c r="G17" s="0">
         <v>3.5638396739959717</v>
       </c>
-      <c r="G17" s="0">
+      <c r="H17" s="0">
         <v>3.8018245697021484</v>
       </c>
-      <c r="H17" s="0">
+      <c r="I17" s="0">
         <v>3.3229541778564453</v>
       </c>
-      <c r="I17" s="0">
+      <c r="J17" s="0">
         <v>3.4945483207702637</v>
       </c>
-      <c r="J17" s="0">
+      <c r="K17" s="0">
         <v>1.8236188888549805</v>
       </c>
-      <c r="K17" s="0">
+      <c r="L17" s="0">
         <v>2.313786506652832</v>
       </c>
     </row>
@@ -710,33 +765,36 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="B18" s="0">
+        <v>1.9640000000000002</v>
+      </c>
+      <c r="C18" s="0">
         <v>4.1099743843078613</v>
       </c>
-      <c r="C18" s="0">
+      <c r="D18" s="0">
         <v>4.8184480667114258</v>
       </c>
-      <c r="D18" s="0">
+      <c r="E18" s="0">
         <v>6.0161991119384766</v>
       </c>
-      <c r="E18" s="0">
+      <c r="F18" s="0">
         <v>5.690638542175293</v>
       </c>
-      <c r="F18" s="0">
+      <c r="G18" s="0">
         <v>3.6862573623657227</v>
       </c>
-      <c r="G18" s="0">
+      <c r="H18" s="0">
         <v>3.4862039089202881</v>
       </c>
-      <c r="H18" s="0">
+      <c r="I18" s="0">
         <v>2.8273582458496094</v>
       </c>
-      <c r="I18" s="0">
+      <c r="J18" s="0">
         <v>2.6735725402832031</v>
       </c>
-      <c r="J18" s="0">
+      <c r="K18" s="0">
         <v>0.81190800666809082</v>
       </c>
-      <c r="K18" s="0">
+      <c r="L18" s="0">
         <v>0.82442659139633179</v>
       </c>
     </row>
@@ -745,33 +803,36 @@
         <v>2.1120000000000001</v>
       </c>
       <c r="B19" s="0">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="C19" s="0">
         <v>4.9125938415527344</v>
       </c>
-      <c r="C19" s="0">
+      <c r="D19" s="0">
         <v>5.1862225532531738</v>
       </c>
-      <c r="D19" s="0">
+      <c r="E19" s="0">
         <v>2.427027702331543</v>
       </c>
-      <c r="E19" s="0">
+      <c r="F19" s="0">
         <v>2.9317784309387207</v>
       </c>
-      <c r="F19" s="0">
+      <c r="G19" s="0">
         <v>2.1502571105957031</v>
       </c>
-      <c r="G19" s="0">
+      <c r="H19" s="0">
         <v>2.0855231285095215</v>
       </c>
-      <c r="H19" s="0">
+      <c r="I19" s="0">
         <v>2.0607750415802002</v>
       </c>
-      <c r="I19" s="0">
+      <c r="J19" s="0">
         <v>1.8119215965270996</v>
       </c>
-      <c r="J19" s="0">
+      <c r="K19" s="0">
         <v>4.7421765327453613</v>
       </c>
-      <c r="K19" s="0">
+      <c r="L19" s="0">
         <v>4.3848495483398438</v>
       </c>
     </row>
@@ -780,33 +841,36 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B20" s="0">
+        <v>1.8159999999999998</v>
+      </c>
+      <c r="C20" s="0">
         <v>0.97357755899429321</v>
       </c>
-      <c r="C20" s="0">
+      <c r="D20" s="0">
         <v>1.3643840551376343</v>
       </c>
-      <c r="D20" s="0">
+      <c r="E20" s="0">
         <v>3.3439533710479736</v>
       </c>
-      <c r="E20" s="0">
+      <c r="F20" s="0">
         <v>2.8506393432617188</v>
       </c>
-      <c r="F20" s="0">
+      <c r="G20" s="0">
         <v>2.649754524230957</v>
       </c>
-      <c r="G20" s="0">
+      <c r="H20" s="0">
         <v>2.4699375629425049</v>
       </c>
-      <c r="H20" s="0">
+      <c r="I20" s="0">
         <v>2.4647364616394043</v>
       </c>
-      <c r="I20" s="0">
+      <c r="J20" s="0">
         <v>2.3684735298156738</v>
       </c>
-      <c r="J20" s="0">
+      <c r="K20" s="0">
         <v>2.2708520889282227</v>
       </c>
-      <c r="K20" s="0">
+      <c r="L20" s="0">
         <v>1.1384487152099609</v>
       </c>
     </row>
@@ -815,33 +879,36 @@
         <v>2.516</v>
       </c>
       <c r="B21" s="0">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="C21" s="0">
         <v>9.9314107894897461</v>
       </c>
-      <c r="C21" s="0">
+      <c r="D21" s="0">
         <v>9.9409818649291992</v>
       </c>
-      <c r="D21" s="0">
+      <c r="E21" s="0">
         <v>9.7012939453125</v>
       </c>
-      <c r="E21" s="0">
+      <c r="F21" s="0">
         <v>8.4052600860595703</v>
       </c>
-      <c r="F21" s="0">
+      <c r="G21" s="0">
         <v>8.2919511795043945</v>
       </c>
-      <c r="G21" s="0">
+      <c r="H21" s="0">
         <v>7.5709385871887207</v>
       </c>
-      <c r="H21" s="0">
+      <c r="I21" s="0">
         <v>7.4795465469360352</v>
       </c>
-      <c r="I21" s="0">
+      <c r="J21" s="0">
         <v>7.0900025367736816</v>
       </c>
-      <c r="J21" s="0">
+      <c r="K21" s="0">
         <v>4.7395186424255371</v>
       </c>
-      <c r="K21" s="0">
+      <c r="L21" s="0">
         <v>3.8756313323974609</v>
       </c>
     </row>
@@ -850,33 +917,36 @@
         <v>2.6440000000000001</v>
       </c>
       <c r="B22" s="0">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="C22" s="0">
         <v>7.5996026992797852</v>
       </c>
-      <c r="C22" s="0">
+      <c r="D22" s="0">
         <v>6.6810736656188965</v>
       </c>
-      <c r="D22" s="0">
+      <c r="E22" s="0">
         <v>6.9758930206298828</v>
       </c>
-      <c r="E22" s="0">
+      <c r="F22" s="0">
         <v>6.7486715316772461</v>
       </c>
-      <c r="F22" s="0">
+      <c r="G22" s="0">
         <v>4.1689319610595703</v>
       </c>
-      <c r="G22" s="0">
+      <c r="H22" s="0">
         <v>3.4978306293487549</v>
       </c>
-      <c r="H22" s="0">
+      <c r="I22" s="0">
         <v>3.7378451824188232</v>
       </c>
-      <c r="I22" s="0">
+      <c r="J22" s="0">
         <v>2.9985742568969727</v>
       </c>
-      <c r="J22" s="0">
+      <c r="K22" s="0">
         <v>2.9534330368041992</v>
       </c>
-      <c r="K22" s="0">
+      <c r="L22" s="0">
         <v>1.8702341318130493</v>
       </c>
     </row>
@@ -885,33 +955,36 @@
         <v>2.3759999999999999</v>
       </c>
       <c r="B23" s="0">
+        <v>1.3639999999999999</v>
+      </c>
+      <c r="C23" s="0">
         <v>3.4867017269134521</v>
       </c>
-      <c r="C23" s="0">
+      <c r="D23" s="0">
         <v>3.5495781898498535</v>
       </c>
-      <c r="D23" s="0">
+      <c r="E23" s="0">
         <v>3.6615374088287354</v>
       </c>
-      <c r="E23" s="0">
+      <c r="F23" s="0">
         <v>4.3538589477539062</v>
       </c>
-      <c r="F23" s="0">
+      <c r="G23" s="0">
         <v>4.5620651245117188</v>
       </c>
-      <c r="G23" s="0">
+      <c r="H23" s="0">
         <v>4.5901579856872559</v>
       </c>
-      <c r="H23" s="0">
+      <c r="I23" s="0">
         <v>5.2301969528198242</v>
       </c>
-      <c r="I23" s="0">
+      <c r="J23" s="0">
         <v>4.7654762268066406</v>
       </c>
-      <c r="J23" s="0">
+      <c r="K23" s="0">
         <v>3.2852513790130615</v>
       </c>
-      <c r="K23" s="0">
+      <c r="L23" s="0">
         <v>4.1916904449462891</v>
       </c>
     </row>
@@ -920,33 +993,36 @@
         <v>2.3159999999999998</v>
       </c>
       <c r="B24" s="0">
+        <v>1.5079999999999998</v>
+      </c>
+      <c r="C24" s="0">
         <v>5.6254849433898926</v>
       </c>
-      <c r="C24" s="0">
+      <c r="D24" s="0">
         <v>6.1488151550292969</v>
       </c>
-      <c r="D24" s="0">
+      <c r="E24" s="0">
         <v>6.7122116088867188</v>
       </c>
-      <c r="E24" s="0">
+      <c r="F24" s="0">
         <v>7.2641758918762207</v>
       </c>
-      <c r="F24" s="0">
+      <c r="G24" s="0">
         <v>4.8476839065551758</v>
       </c>
-      <c r="G24" s="0">
+      <c r="H24" s="0">
         <v>5.5575127601623535</v>
       </c>
-      <c r="H24" s="0">
+      <c r="I24" s="0">
         <v>3.8486521244049072</v>
       </c>
-      <c r="I24" s="0">
+      <c r="J24" s="0">
         <v>4.64306640625</v>
       </c>
-      <c r="J24" s="0">
+      <c r="K24" s="0">
         <v>4.5272583961486816</v>
       </c>
-      <c r="K24" s="0">
+      <c r="L24" s="0">
         <v>4.1644740104675293</v>
       </c>
     </row>
@@ -955,33 +1031,36 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B25" s="0">
+        <v>1.7960000000000003</v>
+      </c>
+      <c r="C25" s="0">
         <v>2.6680071353912354</v>
       </c>
-      <c r="C25" s="0">
+      <c r="D25" s="0">
         <v>3.7705965042114258</v>
       </c>
-      <c r="D25" s="0">
+      <c r="E25" s="0">
         <v>2.999549388885498</v>
       </c>
-      <c r="E25" s="0">
+      <c r="F25" s="0">
         <v>4.1606979370117188</v>
       </c>
-      <c r="F25" s="0">
+      <c r="G25" s="0">
         <v>3.5152194499969482</v>
       </c>
-      <c r="G25" s="0">
+      <c r="H25" s="0">
         <v>3.5266802310943604</v>
       </c>
-      <c r="H25" s="0">
+      <c r="I25" s="0">
         <v>3.6312170028686523</v>
       </c>
-      <c r="I25" s="0">
+      <c r="J25" s="0">
         <v>3.3840618133544922</v>
       </c>
-      <c r="J25" s="0">
+      <c r="K25" s="0">
         <v>7.2011804580688477</v>
       </c>
-      <c r="K25" s="0">
+      <c r="L25" s="0">
         <v>7.8095040321350098</v>
       </c>
     </row>
@@ -990,33 +1069,36 @@
         <v>2.056</v>
       </c>
       <c r="B26" s="0">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="C26" s="0">
         <v>3.3415772914886475</v>
       </c>
-      <c r="C26" s="0">
+      <c r="D26" s="0">
         <v>3.4320535659790039</v>
       </c>
-      <c r="D26" s="0">
+      <c r="E26" s="0">
         <v>5.6028385162353516</v>
       </c>
-      <c r="E26" s="0">
+      <c r="F26" s="0">
         <v>5.4506673812866211</v>
       </c>
-      <c r="F26" s="0">
+      <c r="G26" s="0">
         <v>5.6359758377075195</v>
       </c>
-      <c r="G26" s="0">
+      <c r="H26" s="0">
         <v>7.124690055847168</v>
       </c>
-      <c r="H26" s="0">
+      <c r="I26" s="0">
         <v>5.6460695266723633</v>
       </c>
-      <c r="I26" s="0">
+      <c r="J26" s="0">
         <v>7.6345453262329102</v>
       </c>
-      <c r="J26" s="0">
+      <c r="K26" s="0">
         <v>2.8357169628143311</v>
       </c>
-      <c r="K26" s="0">
+      <c r="L26" s="0">
         <v>3.6244466304779053</v>
       </c>
     </row>
@@ -1025,33 +1107,36 @@
         <v>1.952</v>
       </c>
       <c r="B27" s="0">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="C27" s="0">
         <v>4.1035561561584473</v>
       </c>
-      <c r="C27" s="0">
+      <c r="D27" s="0">
         <v>5.0952601432800293</v>
       </c>
-      <c r="D27" s="0">
+      <c r="E27" s="0">
         <v>6.2889323234558105</v>
       </c>
-      <c r="E27" s="0">
+      <c r="F27" s="0">
         <v>4.8777766227722168</v>
       </c>
-      <c r="F27" s="0">
+      <c r="G27" s="0">
         <v>4.0688400268554688</v>
       </c>
-      <c r="G27" s="0">
+      <c r="H27" s="0">
         <v>3.5285754203796387</v>
       </c>
-      <c r="H27" s="0">
+      <c r="I27" s="0">
         <v>3.2626614570617676</v>
       </c>
-      <c r="I27" s="0">
+      <c r="J27" s="0">
         <v>3.0386419296264648</v>
       </c>
-      <c r="J27" s="0">
+      <c r="K27" s="0">
         <v>2.8501095771789551</v>
       </c>
-      <c r="K27" s="0">
+      <c r="L27" s="0">
         <v>3.7628846168518066</v>
       </c>
     </row>
@@ -1060,33 +1145,36 @@
         <v>1.2839999999999998</v>
       </c>
       <c r="B28" s="0">
+        <v>1.0119999999999998</v>
+      </c>
+      <c r="C28" s="0">
         <v>4.333827018737793</v>
       </c>
-      <c r="C28" s="0">
+      <c r="D28" s="0">
         <v>4.8957257270812988</v>
       </c>
-      <c r="D28" s="0">
+      <c r="E28" s="0">
         <v>3.4117903709411621</v>
       </c>
-      <c r="E28" s="0">
+      <c r="F28" s="0">
         <v>4.4009842872619629</v>
       </c>
-      <c r="F28" s="0">
+      <c r="G28" s="0">
         <v>3.9511549472808838</v>
       </c>
-      <c r="G28" s="0">
+      <c r="H28" s="0">
         <v>4.3444480895996094</v>
       </c>
-      <c r="H28" s="0">
+      <c r="I28" s="0">
         <v>4.0961222648620605</v>
       </c>
-      <c r="I28" s="0">
+      <c r="J28" s="0">
         <v>4.3292522430419922</v>
       </c>
-      <c r="J28" s="0">
+      <c r="K28" s="0">
         <v>4.1935324668884277</v>
       </c>
-      <c r="K28" s="0">
+      <c r="L28" s="0">
         <v>2.0068080425262451</v>
       </c>
     </row>
@@ -1095,33 +1183,36 @@
         <v>2.3759999999999999</v>
       </c>
       <c r="B29" s="0">
+        <v>1.724</v>
+      </c>
+      <c r="C29" s="0">
         <v>4.6754426956176758</v>
       </c>
-      <c r="C29" s="0">
+      <c r="D29" s="0">
         <v>4.6739768981933594</v>
       </c>
-      <c r="D29" s="0">
+      <c r="E29" s="0">
         <v>5.3768405914306641</v>
       </c>
-      <c r="E29" s="0">
+      <c r="F29" s="0">
         <v>6.0209708213806152</v>
       </c>
-      <c r="F29" s="0">
+      <c r="G29" s="0">
         <v>6.5769481658935547</v>
       </c>
-      <c r="G29" s="0">
+      <c r="H29" s="0">
         <v>6.6031990051269531</v>
       </c>
-      <c r="H29" s="0">
+      <c r="I29" s="0">
         <v>7.0308160781860352</v>
       </c>
-      <c r="I29" s="0">
+      <c r="J29" s="0">
         <v>6.8233933448791504</v>
       </c>
-      <c r="J29" s="0">
+      <c r="K29" s="0">
         <v>8.0925712585449219</v>
       </c>
-      <c r="K29" s="0">
+      <c r="L29" s="0">
         <v>8.9214906692504883</v>
       </c>
     </row>
@@ -1130,33 +1221,36 @@
         <v>2.5840000000000001</v>
       </c>
       <c r="B30" s="0">
+        <v>2.2199999999999998</v>
+      </c>
+      <c r="C30" s="0">
         <v>5.4201703071594238</v>
       </c>
-      <c r="C30" s="0">
+      <c r="D30" s="0">
         <v>5.3911504745483398</v>
       </c>
-      <c r="D30" s="0">
+      <c r="E30" s="0">
         <v>4.4529638290405273</v>
       </c>
-      <c r="E30" s="0">
+      <c r="F30" s="0">
         <v>3.8501696586608887</v>
       </c>
-      <c r="F30" s="0">
+      <c r="G30" s="0">
         <v>3.076812744140625</v>
       </c>
-      <c r="G30" s="0">
+      <c r="H30" s="0">
         <v>3.5299792289733887</v>
       </c>
-      <c r="H30" s="0">
+      <c r="I30" s="0">
         <v>2.8511734008789062</v>
       </c>
-      <c r="I30" s="0">
+      <c r="J30" s="0">
         <v>3.4774789810180664</v>
       </c>
-      <c r="J30" s="0">
+      <c r="K30" s="0">
         <v>5.110774040222168</v>
       </c>
-      <c r="K30" s="0">
+      <c r="L30" s="0">
         <v>5.2389497756958008</v>
       </c>
     </row>
@@ -1165,33 +1259,36 @@
         <v>2.2040000000000002</v>
       </c>
       <c r="B31" s="0">
+        <v>1.6280000000000001</v>
+      </c>
+      <c r="C31" s="0">
         <v>3.3178925514221191</v>
       </c>
-      <c r="C31" s="0">
+      <c r="D31" s="0">
         <v>3.2312464714050293</v>
       </c>
-      <c r="D31" s="0">
+      <c r="E31" s="0">
         <v>4.9795804023742676</v>
       </c>
-      <c r="E31" s="0">
+      <c r="F31" s="0">
         <v>4.3180389404296875</v>
       </c>
-      <c r="F31" s="0">
+      <c r="G31" s="0">
         <v>5.1901178359985352</v>
       </c>
-      <c r="G31" s="0">
+      <c r="H31" s="0">
         <v>4.8449230194091797</v>
       </c>
-      <c r="H31" s="0">
+      <c r="I31" s="0">
         <v>5.2646079063415527</v>
       </c>
-      <c r="I31" s="0">
+      <c r="J31" s="0">
         <v>5.031339168548584</v>
       </c>
-      <c r="J31" s="0">
+      <c r="K31" s="0">
         <v>2.1395440101623535</v>
       </c>
-      <c r="K31" s="0">
+      <c r="L31" s="0">
         <v>1.4546585083007812</v>
       </c>
     </row>
@@ -1200,33 +1297,36 @@
         <v>2.6200000000000001</v>
       </c>
       <c r="B32" s="0">
+        <v>1.9280000000000002</v>
+      </c>
+      <c r="C32" s="0">
         <v>3.9733641147613525</v>
       </c>
-      <c r="C32" s="0">
+      <c r="D32" s="0">
         <v>3.6153514385223389</v>
       </c>
-      <c r="D32" s="0">
+      <c r="E32" s="0">
         <v>5.8825716972351074</v>
       </c>
-      <c r="E32" s="0">
+      <c r="F32" s="0">
         <v>5.9517602920532227</v>
       </c>
-      <c r="F32" s="0">
+      <c r="G32" s="0">
         <v>5.768643856048584</v>
       </c>
-      <c r="G32" s="0">
+      <c r="H32" s="0">
         <v>7.7924041748046875</v>
       </c>
-      <c r="H32" s="0">
+      <c r="I32" s="0">
         <v>5.727752685546875</v>
       </c>
-      <c r="I32" s="0">
+      <c r="J32" s="0">
         <v>8.4530496597290039</v>
       </c>
-      <c r="J32" s="0">
+      <c r="K32" s="0">
         <v>10.761501312255859</v>
       </c>
-      <c r="K32" s="0">
+      <c r="L32" s="0">
         <v>8.8799238204956055</v>
       </c>
     </row>
@@ -1235,33 +1335,36 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="B33" s="0">
+        <v>1.6599999999999999</v>
+      </c>
+      <c r="C33" s="0">
         <v>4.3119463920593262</v>
       </c>
-      <c r="C33" s="0">
+      <c r="D33" s="0">
         <v>4.7322988510131836</v>
       </c>
-      <c r="D33" s="0">
+      <c r="E33" s="0">
         <v>3.3155226707458496</v>
       </c>
-      <c r="E33" s="0">
+      <c r="F33" s="0">
         <v>3.1800894737243652</v>
       </c>
-      <c r="F33" s="0">
+      <c r="G33" s="0">
         <v>3.3176062107086182</v>
       </c>
-      <c r="G33" s="0">
+      <c r="H33" s="0">
         <v>4.0946307182312012</v>
       </c>
-      <c r="H33" s="0">
+      <c r="I33" s="0">
         <v>3.318434476852417</v>
       </c>
-      <c r="I33" s="0">
+      <c r="J33" s="0">
         <v>4.4582433700561523</v>
       </c>
-      <c r="J33" s="0">
+      <c r="K33" s="0">
         <v>1.6229863166809082</v>
       </c>
-      <c r="K33" s="0">
+      <c r="L33" s="0">
         <v>1.1505038738250732</v>
       </c>
     </row>
@@ -1270,33 +1373,36 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B34" s="0">
+        <v>1.5640000000000003</v>
+      </c>
+      <c r="C34" s="0">
         <v>4.5808372497558594</v>
       </c>
-      <c r="C34" s="0">
+      <c r="D34" s="0">
         <v>5.7551584243774414</v>
       </c>
-      <c r="D34" s="0">
+      <c r="E34" s="0">
         <v>3.4448997974395752</v>
       </c>
-      <c r="E34" s="0">
+      <c r="F34" s="0">
         <v>5.1713991165161133</v>
       </c>
-      <c r="F34" s="0">
+      <c r="G34" s="0">
         <v>2.7493216991424561</v>
       </c>
-      <c r="G34" s="0">
+      <c r="H34" s="0">
         <v>3.2517695426940918</v>
       </c>
-      <c r="H34" s="0">
+      <c r="I34" s="0">
         <v>2.4664652347564697</v>
       </c>
-      <c r="I34" s="0">
+      <c r="J34" s="0">
         <v>2.4711530208587646</v>
       </c>
-      <c r="J34" s="0">
+      <c r="K34" s="0">
         <v>2.6667506694793701</v>
       </c>
-      <c r="K34" s="0">
+      <c r="L34" s="0">
         <v>3.8040218353271484</v>
       </c>
     </row>
@@ -1305,33 +1411,36 @@
         <v>2.0960000000000001</v>
       </c>
       <c r="B35" s="0">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="C35" s="0">
         <v>2.5469839572906494</v>
       </c>
-      <c r="C35" s="0">
+      <c r="D35" s="0">
         <v>4.154263973236084</v>
       </c>
-      <c r="D35" s="0">
+      <c r="E35" s="0">
         <v>3.0079360008239746</v>
       </c>
-      <c r="E35" s="0">
+      <c r="F35" s="0">
         <v>3.256908655166626</v>
       </c>
-      <c r="F35" s="0">
+      <c r="G35" s="0">
         <v>4.3994321823120117</v>
       </c>
-      <c r="G35" s="0">
+      <c r="H35" s="0">
         <v>3.5011358261108398</v>
       </c>
-      <c r="H35" s="0">
+      <c r="I35" s="0">
         <v>5.165168285369873</v>
       </c>
-      <c r="I35" s="0">
+      <c r="J35" s="0">
         <v>3.6355338096618652</v>
       </c>
-      <c r="J35" s="0">
+      <c r="K35" s="0">
         <v>3.9475767612457275</v>
       </c>
-      <c r="K35" s="0">
+      <c r="L35" s="0">
         <v>3.4802935123443604</v>
       </c>
     </row>
@@ -1340,33 +1449,36 @@
         <v>2.3119999999999998</v>
       </c>
       <c r="B36" s="0">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="C36" s="0">
         <v>4.2611594200134277</v>
       </c>
-      <c r="C36" s="0">
+      <c r="D36" s="0">
         <v>4.1981253623962402</v>
       </c>
-      <c r="D36" s="0">
+      <c r="E36" s="0">
         <v>4.9724936485290527</v>
       </c>
-      <c r="E36" s="0">
+      <c r="F36" s="0">
         <v>4.6870508193969727</v>
       </c>
-      <c r="F36" s="0">
+      <c r="G36" s="0">
         <v>4.0008144378662109</v>
       </c>
-      <c r="G36" s="0">
+      <c r="H36" s="0">
         <v>3.7953662872314453</v>
       </c>
-      <c r="H36" s="0">
+      <c r="I36" s="0">
         <v>3.5959484577178955</v>
       </c>
-      <c r="I36" s="0">
+      <c r="J36" s="0">
         <v>3.4238302707672119</v>
       </c>
-      <c r="J36" s="0">
+      <c r="K36" s="0">
         <v>4.9599819183349609</v>
       </c>
-      <c r="K36" s="0">
+      <c r="L36" s="0">
         <v>5.958620548248291</v>
       </c>
     </row>
@@ -1375,33 +1487,36 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="B37" s="0">
+        <v>1.9440000000000002</v>
+      </c>
+      <c r="C37" s="0">
         <v>3.1446738243103027</v>
       </c>
-      <c r="C37" s="0">
+      <c r="D37" s="0">
         <v>3.3984789848327637</v>
       </c>
-      <c r="D37" s="0">
+      <c r="E37" s="0">
         <v>51.923934936523438</v>
       </c>
-      <c r="E37" s="0">
+      <c r="F37" s="0">
         <v>13.871660232543945</v>
       </c>
-      <c r="F37" s="0">
+      <c r="G37" s="0">
         <v>24.083738327026367</v>
       </c>
-      <c r="G37" s="0">
+      <c r="H37" s="0">
         <v>9.9687776565551758</v>
       </c>
-      <c r="H37" s="0">
+      <c r="I37" s="0">
         <v>13.428851127624512</v>
       </c>
-      <c r="I37" s="0">
+      <c r="J37" s="0">
         <v>8.4750804901123047</v>
       </c>
-      <c r="J37" s="0">
+      <c r="K37" s="0">
         <v>1.2446552515029907</v>
       </c>
-      <c r="K37" s="0">
+      <c r="L37" s="0">
         <v>1.1324729919433594</v>
       </c>
     </row>
@@ -1410,33 +1525,36 @@
         <v>3.016</v>
       </c>
       <c r="B38" s="0">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C38" s="0">
         <v>3.1739451885223389</v>
       </c>
-      <c r="C38" s="0">
+      <c r="D38" s="0">
         <v>2.8680298328399658</v>
       </c>
-      <c r="D38" s="0">
+      <c r="E38" s="0">
         <v>2.5115995407104492</v>
       </c>
-      <c r="E38" s="0">
+      <c r="F38" s="0">
         <v>2.6111102104187012</v>
       </c>
-      <c r="F38" s="0">
+      <c r="G38" s="0">
         <v>2.2658731937408447</v>
       </c>
-      <c r="G38" s="0">
+      <c r="H38" s="0">
         <v>2.4991250038146973</v>
       </c>
-      <c r="H38" s="0">
+      <c r="I38" s="0">
         <v>2.1747314929962158</v>
       </c>
-      <c r="I38" s="0">
+      <c r="J38" s="0">
         <v>2.4575881958007812</v>
       </c>
-      <c r="J38" s="0">
+      <c r="K38" s="0">
         <v>4.9457254409790039</v>
       </c>
-      <c r="K38" s="0">
+      <c r="L38" s="0">
         <v>3.8407711982727051</v>
       </c>
     </row>
@@ -1445,33 +1563,36 @@
         <v>1.7280000000000002</v>
       </c>
       <c r="B39" s="0">
+        <v>1.2280000000000002</v>
+      </c>
+      <c r="C39" s="0">
         <v>2.016387939453125</v>
       </c>
-      <c r="C39" s="0">
+      <c r="D39" s="0">
         <v>2.2958922386169434</v>
       </c>
-      <c r="D39" s="0">
+      <c r="E39" s="0">
         <v>2.5822176933288574</v>
       </c>
-      <c r="E39" s="0">
+      <c r="F39" s="0">
         <v>4.5255017280578613</v>
       </c>
-      <c r="F39" s="0">
+      <c r="G39" s="0">
         <v>2.1919236183166504</v>
       </c>
-      <c r="G39" s="0">
+      <c r="H39" s="0">
         <v>3.0988545417785645</v>
       </c>
-      <c r="H39" s="0">
+      <c r="I39" s="0">
         <v>2.0330085754394531</v>
       </c>
-      <c r="I39" s="0">
+      <c r="J39" s="0">
         <v>2.5179715156555176</v>
       </c>
-      <c r="J39" s="0">
+      <c r="K39" s="0">
         <v>2.0540177822113037</v>
       </c>
-      <c r="K39" s="0">
+      <c r="L39" s="0">
         <v>2.5231742858886719</v>
       </c>
     </row>
@@ -1480,33 +1601,36 @@
         <v>2.6040000000000001</v>
       </c>
       <c r="B40" s="0">
+        <v>1.9040000000000001</v>
+      </c>
+      <c r="C40" s="0">
         <v>4.446709156036377</v>
       </c>
-      <c r="C40" s="0">
+      <c r="D40" s="0">
         <v>3.6803269386291504</v>
       </c>
-      <c r="D40" s="0">
+      <c r="E40" s="0">
         <v>4.5389580726623535</v>
       </c>
-      <c r="E40" s="0">
+      <c r="F40" s="0">
         <v>4.4452958106994629</v>
       </c>
-      <c r="F40" s="0">
+      <c r="G40" s="0">
         <v>5.2834606170654297</v>
       </c>
-      <c r="G40" s="0">
+      <c r="H40" s="0">
         <v>5.0824565887451172</v>
       </c>
-      <c r="H40" s="0">
+      <c r="I40" s="0">
         <v>5.5571746826171875</v>
       </c>
-      <c r="I40" s="0">
+      <c r="J40" s="0">
         <v>5.3167061805725098</v>
       </c>
-      <c r="J40" s="0">
+      <c r="K40" s="0">
         <v>3.5262043476104736</v>
       </c>
-      <c r="K40" s="0">
+      <c r="L40" s="0">
         <v>5.9592595100402832</v>
       </c>
     </row>
@@ -1515,33 +1639,36 @@
         <v>1.452</v>
       </c>
       <c r="B41" s="0">
+        <v>1.0839999999999999</v>
+      </c>
+      <c r="C41" s="0">
         <v>5.6236958503723145</v>
       </c>
-      <c r="C41" s="0">
+      <c r="D41" s="0">
         <v>6.4778332710266113</v>
       </c>
-      <c r="D41" s="0">
+      <c r="E41" s="0">
         <v>2.2284178733825684</v>
       </c>
-      <c r="E41" s="0">
+      <c r="F41" s="0">
         <v>2.0474100112915039</v>
       </c>
-      <c r="F41" s="0">
+      <c r="G41" s="0">
         <v>3.2315940856933594</v>
       </c>
-      <c r="G41" s="0">
+      <c r="H41" s="0">
         <v>3.549727201461792</v>
       </c>
-      <c r="H41" s="0">
+      <c r="I41" s="0">
         <v>3.5721566677093506</v>
       </c>
-      <c r="I41" s="0">
+      <c r="J41" s="0">
         <v>4.0597386360168457</v>
       </c>
-      <c r="J41" s="0">
+      <c r="K41" s="0">
         <v>4.5145001411437988</v>
       </c>
-      <c r="K41" s="0">
+      <c r="L41" s="0">
         <v>2.9894094467163086</v>
       </c>
     </row>
@@ -1550,33 +1677,36 @@
         <v>2.048</v>
       </c>
       <c r="B42" s="0">
+        <v>1.3600000000000001</v>
+      </c>
+      <c r="C42" s="0">
         <v>5.1667356491088867</v>
       </c>
-      <c r="C42" s="0">
+      <c r="D42" s="0">
         <v>4.5087604522705078</v>
       </c>
-      <c r="D42" s="0">
+      <c r="E42" s="0">
         <v>4.5765476226806641</v>
       </c>
-      <c r="E42" s="0">
+      <c r="F42" s="0">
         <v>6.3842802047729492</v>
       </c>
-      <c r="F42" s="0">
+      <c r="G42" s="0">
         <v>3.7152206897735596</v>
       </c>
-      <c r="G42" s="0">
+      <c r="H42" s="0">
         <v>4.0516157150268555</v>
       </c>
-      <c r="H42" s="0">
+      <c r="I42" s="0">
         <v>3.2794904708862305</v>
       </c>
-      <c r="I42" s="0">
+      <c r="J42" s="0">
         <v>2.8715624809265137</v>
       </c>
-      <c r="J42" s="0">
+      <c r="K42" s="0">
         <v>0.24666136503219604</v>
       </c>
-      <c r="K42" s="0">
+      <c r="L42" s="0">
         <v>0.30857923626899719</v>
       </c>
     </row>
@@ -1585,33 +1715,36 @@
         <v>2.48</v>
       </c>
       <c r="B43" s="0">
+        <v>1.48</v>
+      </c>
+      <c r="C43" s="0">
         <v>3.5468854904174805</v>
       </c>
-      <c r="C43" s="0">
+      <c r="D43" s="0">
         <v>4.8173065185546875</v>
       </c>
-      <c r="D43" s="0">
+      <c r="E43" s="0">
         <v>3.5693392753601074</v>
       </c>
-      <c r="E43" s="0">
+      <c r="F43" s="0">
         <v>4.981562614440918</v>
       </c>
-      <c r="F43" s="0">
+      <c r="G43" s="0">
         <v>3.8324580192565918</v>
       </c>
-      <c r="G43" s="0">
+      <c r="H43" s="0">
         <v>4.0174384117126465</v>
       </c>
-      <c r="H43" s="0">
+      <c r="I43" s="0">
         <v>4.0102396011352539</v>
       </c>
-      <c r="I43" s="0">
+      <c r="J43" s="0">
         <v>3.3660035133361816</v>
       </c>
-      <c r="J43" s="0">
+      <c r="K43" s="0">
         <v>4.3060040473937988</v>
       </c>
-      <c r="K43" s="0">
+      <c r="L43" s="0">
         <v>3.4936800003051758</v>
       </c>
     </row>
@@ -1620,33 +1753,36 @@
         <v>2.8759999999999999</v>
       </c>
       <c r="B44" s="0">
+        <v>2.532</v>
+      </c>
+      <c r="C44" s="0">
         <v>4.7548079490661621</v>
       </c>
-      <c r="C44" s="0">
+      <c r="D44" s="0">
         <v>3.6723971366882324</v>
       </c>
-      <c r="D44" s="0">
+      <c r="E44" s="0">
         <v>4.8129258155822754</v>
       </c>
-      <c r="E44" s="0">
+      <c r="F44" s="0">
         <v>9.2334985733032227</v>
       </c>
-      <c r="F44" s="0">
+      <c r="G44" s="0">
         <v>3.9158496856689453</v>
       </c>
-      <c r="G44" s="0">
+      <c r="H44" s="0">
         <v>4.4957666397094727</v>
       </c>
-      <c r="H44" s="0">
+      <c r="I44" s="0">
         <v>3.7939724922180176</v>
       </c>
-      <c r="I44" s="0">
+      <c r="J44" s="0">
         <v>3.8520948886871338</v>
       </c>
-      <c r="J44" s="0">
+      <c r="K44" s="0">
         <v>2.8718760013580322</v>
       </c>
-      <c r="K44" s="0">
+      <c r="L44" s="0">
         <v>1.8438205718994141</v>
       </c>
     </row>
@@ -1655,33 +1791,36 @@
         <v>1.988</v>
       </c>
       <c r="B45" s="0">
+        <v>1.264</v>
+      </c>
+      <c r="C45" s="0">
         <v>6.1675810813903809</v>
       </c>
-      <c r="C45" s="0">
+      <c r="D45" s="0">
         <v>5.0135183334350586</v>
       </c>
-      <c r="D45" s="0">
+      <c r="E45" s="0">
         <v>4.1245050430297852</v>
       </c>
-      <c r="E45" s="0">
+      <c r="F45" s="0">
         <v>4.7445073127746582</v>
       </c>
-      <c r="F45" s="0">
+      <c r="G45" s="0">
         <v>5.228640079498291</v>
       </c>
-      <c r="G45" s="0">
+      <c r="H45" s="0">
         <v>6.111849308013916</v>
       </c>
-      <c r="H45" s="0">
+      <c r="I45" s="0">
         <v>5.8610711097717285</v>
       </c>
-      <c r="I45" s="0">
+      <c r="J45" s="0">
         <v>6.8950405120849609</v>
       </c>
-      <c r="J45" s="0">
+      <c r="K45" s="0">
         <v>8.9183902740478516</v>
       </c>
-      <c r="K45" s="0">
+      <c r="L45" s="0">
         <v>15.238158226013184</v>
       </c>
     </row>
@@ -1690,33 +1829,36 @@
         <v>1.6200000000000001</v>
       </c>
       <c r="B46" s="0">
+        <v>1.012</v>
+      </c>
+      <c r="C46" s="0">
         <v>5.2099757194519043</v>
       </c>
-      <c r="C46" s="0">
+      <c r="D46" s="0">
         <v>4.2258448600769043</v>
       </c>
-      <c r="D46" s="0">
+      <c r="E46" s="0">
         <v>3.0333042144775391</v>
       </c>
-      <c r="E46" s="0">
+      <c r="F46" s="0">
         <v>3.4720966815948486</v>
       </c>
-      <c r="F46" s="0">
+      <c r="G46" s="0">
         <v>3.8544876575469971</v>
       </c>
-      <c r="G46" s="0">
+      <c r="H46" s="0">
         <v>4.6701092720031738</v>
       </c>
-      <c r="H46" s="0">
+      <c r="I46" s="0">
         <v>4.3478474617004395</v>
       </c>
-      <c r="I46" s="0">
+      <c r="J46" s="0">
         <v>5.3898634910583496</v>
       </c>
-      <c r="J46" s="0">
+      <c r="K46" s="0">
         <v>3.3085877895355225</v>
       </c>
-      <c r="K46" s="0">
+      <c r="L46" s="0">
         <v>4.1350460052490234</v>
       </c>
     </row>
@@ -1725,33 +1867,36 @@
         <v>1.3359999999999999</v>
       </c>
       <c r="B47" s="0">
+        <v>1.0079999999999998</v>
+      </c>
+      <c r="C47" s="0">
         <v>3.7702882289886475</v>
       </c>
-      <c r="C47" s="0">
+      <c r="D47" s="0">
         <v>2.1641263961791992</v>
       </c>
-      <c r="D47" s="0">
+      <c r="E47" s="0">
         <v>2.7186055183410645</v>
       </c>
-      <c r="E47" s="0">
+      <c r="F47" s="0">
         <v>1.7683069705963135</v>
       </c>
-      <c r="F47" s="0">
+      <c r="G47" s="0">
         <v>5.7000970840454102</v>
       </c>
-      <c r="G47" s="0">
+      <c r="H47" s="0">
         <v>5.601771354675293</v>
       </c>
-      <c r="H47" s="0">
+      <c r="I47" s="0">
         <v>6.670264720916748</v>
       </c>
-      <c r="I47" s="0">
+      <c r="J47" s="0">
         <v>6.8491692543029785</v>
       </c>
-      <c r="J47" s="0">
+      <c r="K47" s="0">
         <v>8.8193769454956055</v>
       </c>
-      <c r="K47" s="0">
+      <c r="L47" s="0">
         <v>4.8019227981567383</v>
       </c>
     </row>
@@ -1760,33 +1905,36 @@
         <v>1.6720000000000002</v>
       </c>
       <c r="B48" s="0">
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="C48" s="0">
         <v>5.3776087760925293</v>
       </c>
-      <c r="C48" s="0">
+      <c r="D48" s="0">
         <v>6.6829771995544434</v>
       </c>
-      <c r="D48" s="0">
+      <c r="E48" s="0">
         <v>4.074577808380127</v>
       </c>
-      <c r="E48" s="0">
+      <c r="F48" s="0">
         <v>3.4161138534545898</v>
       </c>
-      <c r="F48" s="0">
+      <c r="G48" s="0">
         <v>5.289212703704834</v>
       </c>
-      <c r="G48" s="0">
+      <c r="H48" s="0">
         <v>6.270148754119873</v>
       </c>
-      <c r="H48" s="0">
+      <c r="I48" s="0">
         <v>5.7956547737121582</v>
       </c>
-      <c r="I48" s="0">
+      <c r="J48" s="0">
         <v>7.4601364135742188</v>
       </c>
-      <c r="J48" s="0">
+      <c r="K48" s="0">
         <v>4.031069278717041</v>
       </c>
-      <c r="K48" s="0">
+      <c r="L48" s="0">
         <v>3.1168491840362549</v>
       </c>
     </row>
@@ -1795,33 +1943,36 @@
         <v>1.7679999999999998</v>
       </c>
       <c r="B49" s="0">
+        <v>1.2119999999999997</v>
+      </c>
+      <c r="C49" s="0">
         <v>4.2483577728271484</v>
       </c>
-      <c r="C49" s="0">
+      <c r="D49" s="0">
         <v>5.6550946235656738</v>
       </c>
-      <c r="D49" s="0">
+      <c r="E49" s="0">
         <v>5.1067934036254883</v>
       </c>
-      <c r="E49" s="0">
+      <c r="F49" s="0">
         <v>4.6441926956176758</v>
       </c>
-      <c r="F49" s="0">
+      <c r="G49" s="0">
         <v>5.0664987564086914</v>
       </c>
-      <c r="G49" s="0">
+      <c r="H49" s="0">
         <v>4.787440299987793</v>
       </c>
-      <c r="H49" s="0">
+      <c r="I49" s="0">
         <v>5.048011302947998</v>
       </c>
-      <c r="I49" s="0">
+      <c r="J49" s="0">
         <v>4.853154182434082</v>
       </c>
-      <c r="J49" s="0">
+      <c r="K49" s="0">
         <v>5.9798917770385742</v>
       </c>
-      <c r="K49" s="0">
+      <c r="L49" s="0">
         <v>9.4177160263061523</v>
       </c>
     </row>
@@ -1830,33 +1981,36 @@
         <v>1.8559999999999999</v>
       </c>
       <c r="B50" s="0">
+        <v>1.4199999999999999</v>
+      </c>
+      <c r="C50" s="0">
         <v>6.7717609405517578</v>
       </c>
-      <c r="C50" s="0">
+      <c r="D50" s="0">
         <v>9.0586051940917969</v>
       </c>
-      <c r="D50" s="0">
+      <c r="E50" s="0">
         <v>9.3349933624267578</v>
       </c>
-      <c r="E50" s="0">
+      <c r="F50" s="0">
         <v>21.008920669555664</v>
       </c>
-      <c r="F50" s="0">
+      <c r="G50" s="0">
         <v>6.1450533866882324</v>
       </c>
-      <c r="G50" s="0">
+      <c r="H50" s="0">
         <v>9.4460906982421875</v>
       </c>
-      <c r="H50" s="0">
+      <c r="I50" s="0">
         <v>5.1656079292297363</v>
       </c>
-      <c r="I50" s="0">
+      <c r="J50" s="0">
         <v>5.8958144187927246</v>
       </c>
-      <c r="J50" s="0">
+      <c r="K50" s="0">
         <v>4.7463374137878418</v>
       </c>
-      <c r="K50" s="0">
+      <c r="L50" s="0">
         <v>4.9265871047973633</v>
       </c>
     </row>
@@ -1865,33 +2019,36 @@
         <v>2.54</v>
       </c>
       <c r="B51" s="0">
+        <v>1.9080000000000001</v>
+      </c>
+      <c r="C51" s="0">
         <v>3.78183913230896</v>
       </c>
-      <c r="C51" s="0">
+      <c r="D51" s="0">
         <v>4.1016526222229004</v>
       </c>
-      <c r="D51" s="0">
+      <c r="E51" s="0">
         <v>3.2008001804351807</v>
       </c>
-      <c r="E51" s="0">
+      <c r="F51" s="0">
         <v>2.9423012733459473</v>
       </c>
-      <c r="F51" s="0">
+      <c r="G51" s="0">
         <v>5.4993429183959961</v>
       </c>
-      <c r="G51" s="0">
+      <c r="H51" s="0">
         <v>5.0878033638000488</v>
       </c>
-      <c r="H51" s="0">
+      <c r="I51" s="0">
         <v>6.2607064247131348</v>
       </c>
-      <c r="I51" s="0">
+      <c r="J51" s="0">
         <v>5.7984724044799805</v>
       </c>
-      <c r="J51" s="0">
+      <c r="K51" s="0">
         <v>2.8339436054229736</v>
       </c>
-      <c r="K51" s="0">
+      <c r="L51" s="0">
         <v>2.778449535369873</v>
       </c>
     </row>
@@ -1900,33 +2057,36 @@
         <v>1.8079999999999998</v>
       </c>
       <c r="B52" s="0">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="C52" s="0">
         <v>4.0622949600219727</v>
       </c>
-      <c r="C52" s="0">
+      <c r="D52" s="0">
         <v>3.9847455024719238</v>
       </c>
-      <c r="D52" s="0">
+      <c r="E52" s="0">
         <v>3.002464771270752</v>
       </c>
-      <c r="E52" s="0">
+      <c r="F52" s="0">
         <v>3.7940385341644287</v>
       </c>
-      <c r="F52" s="0">
+      <c r="G52" s="0">
         <v>4.1218981742858887</v>
       </c>
-      <c r="G52" s="0">
+      <c r="H52" s="0">
         <v>4.3263320922851562</v>
       </c>
-      <c r="H52" s="0">
+      <c r="I52" s="0">
         <v>4.4906530380249023</v>
       </c>
-      <c r="I52" s="0">
+      <c r="J52" s="0">
         <v>4.5016751289367676</v>
       </c>
-      <c r="J52" s="0">
+      <c r="K52" s="0">
         <v>1.8826404809951782</v>
       </c>
-      <c r="K52" s="0">
+      <c r="L52" s="0">
         <v>4.5151124000549316</v>
       </c>
     </row>
@@ -1935,33 +2095,36 @@
         <v>2.032</v>
       </c>
       <c r="B53" s="0">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="C53" s="0">
         <v>3.5862960815429688</v>
       </c>
-      <c r="C53" s="0">
+      <c r="D53" s="0">
         <v>4.1897358894348145</v>
       </c>
-      <c r="D53" s="0">
+      <c r="E53" s="0">
         <v>4.7005438804626465</v>
       </c>
-      <c r="E53" s="0">
+      <c r="F53" s="0">
         <v>4.3765802383422852</v>
       </c>
-      <c r="F53" s="0">
+      <c r="G53" s="0">
         <v>3.9085400104522705</v>
       </c>
-      <c r="G53" s="0">
+      <c r="H53" s="0">
         <v>3.5977039337158203</v>
       </c>
-      <c r="H53" s="0">
+      <c r="I53" s="0">
         <v>3.6946976184844971</v>
       </c>
-      <c r="I53" s="0">
+      <c r="J53" s="0">
         <v>3.3874068260192871</v>
       </c>
-      <c r="J53" s="0">
+      <c r="K53" s="0">
         <v>6.743833065032959</v>
       </c>
-      <c r="K53" s="0">
+      <c r="L53" s="0">
         <v>10.522316932678223</v>
       </c>
     </row>
@@ -1970,33 +2133,36 @@
         <v>1.988</v>
       </c>
       <c r="B54" s="0">
+        <v>1.476</v>
+      </c>
+      <c r="C54" s="0">
         <v>3.4587812423706055</v>
       </c>
-      <c r="C54" s="0">
+      <c r="D54" s="0">
         <v>4.0080289840698242</v>
       </c>
-      <c r="D54" s="0">
+      <c r="E54" s="0">
         <v>5.8297915458679199</v>
       </c>
-      <c r="E54" s="0">
+      <c r="F54" s="0">
         <v>6.7516355514526367</v>
       </c>
-      <c r="F54" s="0">
+      <c r="G54" s="0">
         <v>5.0483283996582031</v>
       </c>
-      <c r="G54" s="0">
+      <c r="H54" s="0">
         <v>4.1773948669433594</v>
       </c>
-      <c r="H54" s="0">
+      <c r="I54" s="0">
         <v>4.7772526741027832</v>
       </c>
-      <c r="I54" s="0">
+      <c r="J54" s="0">
         <v>3.2844328880310059</v>
       </c>
-      <c r="J54" s="0">
+      <c r="K54" s="0">
         <v>4.5495309829711914</v>
       </c>
-      <c r="K54" s="0">
+      <c r="L54" s="0">
         <v>4.9425845146179199</v>
       </c>
     </row>
@@ -2005,33 +2171,36 @@
         <v>1.8239999999999998</v>
       </c>
       <c r="B55" s="0">
+        <v>1.5719999999999998</v>
+      </c>
+      <c r="C55" s="0">
         <v>3.2459006309509277</v>
       </c>
-      <c r="C55" s="0">
+      <c r="D55" s="0">
         <v>2.8667843341827393</v>
       </c>
-      <c r="D55" s="0">
+      <c r="E55" s="0">
         <v>4.6441755294799805</v>
       </c>
-      <c r="E55" s="0">
+      <c r="F55" s="0">
         <v>4.3212947845458984</v>
       </c>
-      <c r="F55" s="0">
+      <c r="G55" s="0">
         <v>4.267265796661377</v>
       </c>
-      <c r="G55" s="0">
+      <c r="H55" s="0">
         <v>3.9097425937652588</v>
       </c>
-      <c r="H55" s="0">
+      <c r="I55" s="0">
         <v>4.2068452835083008</v>
       </c>
-      <c r="I55" s="0">
+      <c r="J55" s="0">
         <v>3.8437690734863281</v>
       </c>
-      <c r="J55" s="0">
+      <c r="K55" s="0">
         <v>5.8246169090270996</v>
       </c>
-      <c r="K55" s="0">
+      <c r="L55" s="0">
         <v>10.261444091796875</v>
       </c>
     </row>
